--- a/data/salad_and_tv.xlsx
+++ b/data/salad_and_tv.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,106 +360,141 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>X.0.10.</t>
+          <t>HoursTV</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>X.10.20.</t>
+          <t>Rarely</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>X.20.25.</t>
+          <t>Sometimes</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>X.25.35.</t>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EveryDay</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(0,1]</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>337</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>271</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>83</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>43</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>(1,2]</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>408</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>331</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>123</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>75</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>(2,3]</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>283</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>268</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>116</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>79</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>(3,4]</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>182</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>194</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>64</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>51</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>(4,5]</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>104</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>109</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>36</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>30</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(5,10]</t>
+        </is>
+      </c>
+      <c r="B7">
         <v>124</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>102</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>28</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>46</v>
       </c>
     </row>
